--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4315202.399631509</v>
+        <v>4313322.219861181</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>578261.0527097294</v>
+        <v>621831.8932785356</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7208675.848129226</v>
+        <v>7208675.848129224</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>343.7699370660546</v>
+        <v>408.1213910625023</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>360.6664298120024</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>253.5111876485552</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.2554594835383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.6534898356759</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>55.20130845255596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.34769566476212</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.75377031702907</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>70.41761368552031</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2065,10 +2065,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.75377031703048</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>70.41761368552054</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326777</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728658</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981165</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108795</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633256</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>70.41761368552076</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>78.18493076209342</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
         <v>275.1967010728659</v>
@@ -2536,10 +2536,10 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>70.41761368552072</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552113</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2776,7 +2776,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552113</v>
+        <v>70.41761368552082</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3013,7 +3013,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.885894456657</v>
+        <v>877.172715966035</v>
       </c>
       <c r="C2" t="n">
-        <v>2036.885894456657</v>
+        <v>877.172715966035</v>
       </c>
       <c r="D2" t="n">
-        <v>1678.620195849906</v>
+        <v>877.172715966035</v>
       </c>
       <c r="E2" t="n">
-        <v>1292.831943251662</v>
+        <v>877.172715966035</v>
       </c>
       <c r="F2" t="n">
-        <v>881.8460384620544</v>
+        <v>466.1868111764274</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>877.172715966035</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D5" t="n">
-        <v>439.1214116936057</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>727.9786966378899</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>310.0148885360768</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4601,16 +4601,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028583</v>
+        <v>492.7132215359193</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171743</v>
+        <v>1106.610291292808</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873786</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9567375132467</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132467</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>524.840098100911</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>761.5137598931743</v>
       </c>
       <c r="W13" t="n">
-        <v>1077.397781487017</v>
+        <v>472.0965898562137</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.397781487017</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.6052023434864</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5306,22 +5306,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,13 +5343,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028583</v>
@@ -5358,19 +5358,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454148</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1495.534759785415</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340556</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729326</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366501</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5692,31 +5692,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057536</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903316</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173149</v>
+        <v>906.980684144975</v>
       </c>
       <c r="V19" t="n">
-        <v>852.2162060235361</v>
+        <v>663.4483689953623</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428497</v>
+        <v>385.1833720146759</v>
       </c>
       <c r="X19" t="n">
-        <v>357.1138312011064</v>
+        <v>168.3459941729326</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.4734251138506</v>
+        <v>168.3459941729326</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>475.3913969432253</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969367</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057538</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057538</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S22" t="n">
-        <v>1586.358229057538</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T22" t="n">
-        <v>1373.724986903318</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U22" t="n">
-        <v>1095.74852117315</v>
+        <v>906.9806841449753</v>
       </c>
       <c r="V22" t="n">
-        <v>852.2162060235373</v>
+        <v>663.4483689953626</v>
       </c>
       <c r="W22" t="n">
-        <v>573.951209042851</v>
+        <v>385.1833720146761</v>
       </c>
       <c r="X22" t="n">
-        <v>357.113831201108</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.473425113852</v>
+        <v>168.3459941729328</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.1917689977539</v>
+        <v>168.3459941729331</v>
       </c>
       <c r="C25" t="n">
-        <v>176.1917689977539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>176.1917689977539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>176.1917689977539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>176.1917689977539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>176.1917689977539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172993</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1486.435298675636</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1297.667461647463</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1085.034219493243</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>807.0577537630752</v>
+        <v>906.9806841449754</v>
       </c>
       <c r="V25" t="n">
-        <v>563.5254386134626</v>
+        <v>663.4483689953627</v>
       </c>
       <c r="W25" t="n">
-        <v>563.5254386134626</v>
+        <v>385.1833720146762</v>
       </c>
       <c r="X25" t="n">
-        <v>346.6880607717194</v>
+        <v>168.3459941729331</v>
       </c>
       <c r="Y25" t="n">
-        <v>346.6880607717194</v>
+        <v>168.3459941729331</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028586</v>
@@ -6388,7 +6388,7 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M28" t="n">
         <v>822.7849551969364</v>
@@ -6397,7 +6397,7 @@
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6412,22 +6412,22 @@
         <v>1397.590392029364</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875144</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U28" t="n">
         <v>906.9806841449757</v>
       </c>
       <c r="V28" t="n">
-        <v>663.448368995363</v>
+        <v>663.4483689953629</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146766</v>
+        <v>385.1833720146765</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729334</v>
+        <v>168.345994172933</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729334</v>
+        <v>168.345994172933</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6455,55 +6455,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449758</v>
+        <v>906.9806841449753</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953631</v>
+        <v>663.4483689953626</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146767</v>
+        <v>385.1833720146761</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729329</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,31 +6835,31 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6953,16 +6953,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,16 +7011,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
         <v>1819.161927111988</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,22 +7807,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9735,7 +9735,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>278.2947324102851</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>367.2826860427846</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271336</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>231.321689884035</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>194.5731143188411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.0375585391968</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>85.78855608739613</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.0375585391953</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729163</v>
+        <v>85.7885560873959</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925008</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972197</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418246</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856049</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808129</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578917</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>85.78855608739568</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>59.68824627973127</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>98.37371517070518</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169867</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169867</v>
+        <v>63.96278301169904</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610990.8966517932</v>
+        <v>610990.896651793</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610990.8966517932</v>
+        <v>610990.896651793</v>
       </c>
     </row>
     <row r="12">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554816</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="H2" t="n">
         <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="J2" t="n">
         <v>768665.9667554814</v>
@@ -26344,16 +26344,16 @@
         <v>800515.725617677</v>
       </c>
       <c r="M2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.725617677</v>
       </c>
-      <c r="N2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="P2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.725617677</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569139</v>
+        <v>8832.521060569125</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759383</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759055</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415192</v>
+        <v>4420.718193415187</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415228</v>
+        <v>4420.718193415187</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415207</v>
+        <v>4420.718193415175</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415196</v>
+        <v>4420.718193415187</v>
       </c>
       <c r="K4" t="n">
         <v>4420.718193415187</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089656</v>
+        <v>-11370.37084089655</v>
       </c>
       <c r="C6" t="n">
+        <v>578597.5083736478</v>
+      </c>
+      <c r="D6" t="n">
         <v>578597.5083736477</v>
       </c>
-      <c r="D6" t="n">
-        <v>578597.5083736476</v>
-      </c>
       <c r="E6" t="n">
-        <v>144571.5103723446</v>
+        <v>144474.0512463712</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492404</v>
+        <v>669634.0877232684</v>
       </c>
       <c r="G6" t="n">
-        <v>662497.2250364794</v>
+        <v>662415.5589881147</v>
       </c>
       <c r="H6" t="n">
-        <v>671329.7460970483</v>
+        <v>671248.0800486838</v>
       </c>
       <c r="I6" t="n">
-        <v>671329.7460970484</v>
+        <v>671248.0800486839</v>
       </c>
       <c r="J6" t="n">
-        <v>494906.5269044555</v>
+        <v>494824.8608560909</v>
       </c>
       <c r="K6" t="n">
-        <v>671329.7460970484</v>
+        <v>671248.0800486838</v>
       </c>
       <c r="L6" t="n">
         <v>625088.5267620427</v>
       </c>
       <c r="M6" t="n">
-        <v>544793.0236319182</v>
+        <v>544793.023631918</v>
       </c>
       <c r="N6" t="n">
-        <v>679594.0388657551</v>
+        <v>679594.0388657553</v>
       </c>
       <c r="O6" t="n">
-        <v>679594.0388657551</v>
+        <v>679594.0388657552</v>
       </c>
       <c r="P6" t="n">
-        <v>679594.038865755</v>
+        <v>679594.0388657552</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.01423295474041</v>
+        <v>5.662778958292733</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2639402602594</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>70.41158511580198</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.47838217994223</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.205144897451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="20">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>272.8672424422182</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776759</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,25 +32069,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508805</v>
+        <v>371.8925761935062</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32318,7 +32318,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32330,13 +32330,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>87.36923562903004</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32570,7 +32570,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33026,25 +33026,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33181,7 +33181,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33497,10 +33497,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33509,7 +33509,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>73.16654148477301</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,10 +33518,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33734,16 +33734,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
@@ -33910,10 +33910,10 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>201.5176914958845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33995,7 +33995,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34208,10 +34208,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34223,7 +34223,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>399.4910404804378</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700527</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111007</v>
+        <v>719.8932384537264</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>612.9173684459628</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35978,13 +35978,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.9930336672496</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
@@ -36218,7 +36218,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127703</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556221</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375123</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758625</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,10 +36443,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
-        <v>274.515464094862</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>421.1672037449932</v>
+        <v>146.9530203269518</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
@@ -37166,10 +37166,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37558,10 +37558,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>228.7283062629105</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37871,7 +37871,7 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
